--- a/Team-Data/2014-15/4-11-2014-15.xlsx
+++ b/Team-Data/2014-15/4-11-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>5.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -771,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="AM2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -938,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="n">
         <v>5</v>
@@ -962,10 +1029,10 @@
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>11</v>
@@ -974,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
         <v>5</v>
@@ -989,7 +1056,7 @@
         <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1120,10 +1187,10 @@
         <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ4" t="n">
         <v>17</v>
@@ -1150,7 +1217,7 @@
         <v>20</v>
       </c>
       <c r="AR4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS4" t="n">
         <v>17</v>
@@ -1165,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="AW4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX4" t="n">
         <v>25</v>
@@ -1180,7 +1247,7 @@
         <v>18</v>
       </c>
       <c r="BB4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1317,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
         <v>30</v>
@@ -1359,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="BA5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB5" t="n">
         <v>27</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" t="n">
         <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0.595</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J6" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K6" t="n">
         <v>0.441</v>
@@ -1424,16 +1491,16 @@
         <v>22.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O6" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P6" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.782</v>
+        <v>0.784</v>
       </c>
       <c r="R6" t="n">
         <v>11.8</v>
@@ -1448,7 +1515,7 @@
         <v>21.8</v>
       </c>
       <c r="V6" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W6" t="n">
         <v>6.2</v>
@@ -1463,19 +1530,19 @@
         <v>18.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1484,13 +1551,13 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
         <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
         <v>22</v>
@@ -1508,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="AP6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ6" t="n">
         <v>3</v>
@@ -1529,19 +1596,19 @@
         <v>13</v>
       </c>
       <c r="AW6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX6" t="n">
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
       </c>
       <c r="BA6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB6" t="n">
         <v>15</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>7</v>
@@ -1669,13 +1736,13 @@
         <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL7" t="n">
         <v>4</v>
@@ -1684,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
         <v>7</v>
@@ -1693,7 +1760,7 @@
         <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR7" t="n">
         <v>13</v>
@@ -1723,7 +1790,7 @@
         <v>5</v>
       </c>
       <c r="BA7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E8" t="n">
         <v>48</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>0.615</v>
+        <v>0.608</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1776,7 +1843,7 @@
         <v>39.7</v>
       </c>
       <c r="J8" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K8" t="n">
         <v>0.462</v>
@@ -1785,7 +1852,7 @@
         <v>8.9</v>
       </c>
       <c r="M8" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="N8" t="n">
         <v>0.349</v>
@@ -1797,19 +1864,19 @@
         <v>22.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R8" t="n">
         <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T8" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V8" t="n">
         <v>12.9</v>
@@ -1830,13 +1897,13 @@
         <v>22.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1854,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1875,13 +1942,13 @@
         <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
         <v>23</v>
@@ -1890,13 +1957,13 @@
         <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1911,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2030,10 +2097,10 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ9" t="n">
         <v>2</v>
@@ -2063,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT9" t="n">
         <v>7</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2215,7 +2282,7 @@
         <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="n">
         <v>5</v>
@@ -2224,7 +2291,7 @@
         <v>27</v>
       </c>
       <c r="AL10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM10" t="n">
         <v>11</v>
@@ -2254,7 +2321,7 @@
         <v>17</v>
       </c>
       <c r="AV10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW10" t="n">
         <v>16</v>
@@ -2266,10 +2333,10 @@
         <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" t="n">
         <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
       </c>
       <c r="I11" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="J11" t="n">
-        <v>87.2</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K11" t="n">
         <v>0.477</v>
@@ -2331,7 +2398,7 @@
         <v>10.7</v>
       </c>
       <c r="M11" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="N11" t="n">
         <v>0.396</v>
@@ -2343,7 +2410,7 @@
         <v>20.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R11" t="n">
         <v>10.4</v>
@@ -2355,7 +2422,7 @@
         <v>44.8</v>
       </c>
       <c r="U11" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="V11" t="n">
         <v>14.4</v>
@@ -2364,7 +2431,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="X11" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y11" t="n">
         <v>3.6</v>
@@ -2373,16 +2440,16 @@
         <v>19.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="AC11" t="n">
         <v>10.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
@@ -2451,7 +2518,7 @@
         <v>13</v>
       </c>
       <c r="BA11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E12" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" t="n">
         <v>26</v>
       </c>
       <c r="G12" t="n">
-        <v>0.667</v>
+        <v>0.671</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K12" t="n">
         <v>0.442</v>
@@ -2513,16 +2580,16 @@
         <v>11.4</v>
       </c>
       <c r="M12" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="N12" t="n">
         <v>0.348</v>
       </c>
       <c r="O12" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="P12" t="n">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="Q12" t="n">
         <v>0.715</v>
@@ -2531,7 +2598,7 @@
         <v>11.8</v>
       </c>
       <c r="S12" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T12" t="n">
         <v>43.6</v>
@@ -2543,7 +2610,7 @@
         <v>16.8</v>
       </c>
       <c r="W12" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X12" t="n">
         <v>4.8</v>
@@ -2552,34 +2619,34 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AD12" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH12" t="n">
         <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
         <v>12</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
         <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
@@ -2609,10 +2676,10 @@
         <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
@@ -2627,19 +2694,19 @@
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -2746,19 +2813,19 @@
         <v>0.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="n">
         <v>19</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2788,7 +2855,7 @@
         <v>14</v>
       </c>
       <c r="AR13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS13" t="n">
         <v>4</v>
@@ -2803,10 +2870,10 @@
         <v>14</v>
       </c>
       <c r="AW13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY13" t="n">
         <v>15</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" t="n">
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>0.675</v>
+        <v>0.671</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2868,10 +2935,10 @@
         <v>39.4</v>
       </c>
       <c r="J14" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L14" t="n">
         <v>10.1</v>
@@ -2880,7 +2947,7 @@
         <v>26.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.376</v>
+        <v>0.378</v>
       </c>
       <c r="O14" t="n">
         <v>17.8</v>
@@ -2889,7 +2956,7 @@
         <v>25.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.709</v>
+        <v>0.708</v>
       </c>
       <c r="R14" t="n">
         <v>9.5</v>
@@ -2898,10 +2965,10 @@
         <v>33.1</v>
       </c>
       <c r="T14" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U14" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="V14" t="n">
         <v>12.3</v>
@@ -2910,7 +2977,7 @@
         <v>7.8</v>
       </c>
       <c r="X14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y14" t="n">
         <v>3</v>
@@ -2919,34 +2986,34 @@
         <v>21.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.6</v>
+        <v>106.8</v>
       </c>
       <c r="AC14" t="n">
         <v>6.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>3</v>
       </c>
       <c r="AJ14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -2964,7 +3031,7 @@
         <v>8</v>
       </c>
       <c r="AP14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ14" t="n">
         <v>28</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15" t="n">
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" t="n">
-        <v>0.269</v>
+        <v>0.266</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L15" t="n">
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O15" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="P15" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.738</v>
+        <v>0.739</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T15" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V15" t="n">
         <v>13.2</v>
@@ -3092,25 +3159,25 @@
         <v>7.1</v>
       </c>
       <c r="X15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y15" t="n">
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.4</v>
+        <v>-6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3137,7 +3204,7 @@
         <v>25</v>
       </c>
       <c r="AM15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN15" t="n">
         <v>16</v>
@@ -3146,7 +3213,7 @@
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ15" t="n">
         <v>23</v>
@@ -3155,10 +3222,10 @@
         <v>9</v>
       </c>
       <c r="AS15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT15" t="n">
         <v>12</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>11</v>
       </c>
       <c r="AU15" t="n">
         <v>21</v>
@@ -3173,16 +3240,16 @@
         <v>22</v>
       </c>
       <c r="AY15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" t="n">
         <v>54</v>
       </c>
       <c r="F16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>0.675</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
@@ -3235,16 +3302,16 @@
         <v>82.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L16" t="n">
         <v>5.2</v>
       </c>
       <c r="M16" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O16" t="n">
         <v>17.6</v>
@@ -3253,7 +3320,7 @@
         <v>22.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.772</v>
+        <v>0.774</v>
       </c>
       <c r="R16" t="n">
         <v>10.3</v>
@@ -3265,7 +3332,7 @@
         <v>42.5</v>
       </c>
       <c r="U16" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V16" t="n">
         <v>13.3</v>
@@ -3286,13 +3353,13 @@
         <v>20.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3304,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI16" t="n">
         <v>12</v>
@@ -3313,7 +3380,7 @@
         <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,7 +3389,7 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
         <v>10</v>
@@ -3331,7 +3398,7 @@
         <v>15</v>
       </c>
       <c r="AQ16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR16" t="n">
         <v>23</v>
@@ -3343,7 +3410,7 @@
         <v>21</v>
       </c>
       <c r="AU16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
         <v>6</v>
@@ -3364,7 +3431,7 @@
         <v>16</v>
       </c>
       <c r="BB16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" t="n">
         <v>35</v>
       </c>
       <c r="F17" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" t="n">
-        <v>0.438</v>
+        <v>0.443</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
@@ -3414,7 +3481,7 @@
         <v>35.1</v>
       </c>
       <c r="J17" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K17" t="n">
         <v>0.456</v>
@@ -3426,31 +3493,31 @@
         <v>20.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
       <c r="O17" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.74</v>
+        <v>0.745</v>
       </c>
       <c r="R17" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="S17" t="n">
         <v>29.9</v>
       </c>
       <c r="T17" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="U17" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V17" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W17" t="n">
         <v>7.9</v>
@@ -3462,19 +3529,19 @@
         <v>4.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC17" t="n">
         <v>-2.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3486,10 +3553,10 @@
         <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3498,7 +3565,7 @@
         <v>11</v>
       </c>
       <c r="AL17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="n">
         <v>19</v>
@@ -3507,13 +3574,13 @@
         <v>24</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3525,16 +3592,16 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX17" t="n">
         <v>20</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>19</v>
       </c>
       <c r="AY17" t="n">
         <v>8</v>
@@ -3543,7 +3610,7 @@
         <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>0.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3668,7 +3735,7 @@
         <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI18" t="n">
         <v>18</v>
@@ -3686,7 +3753,7 @@
         <v>26</v>
       </c>
       <c r="AN18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO18" t="n">
         <v>22</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2</v>
+        <v>0.203</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
@@ -3778,19 +3845,19 @@
         <v>36.5</v>
       </c>
       <c r="J19" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K19" t="n">
         <v>0.438</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M19" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.333</v>
+        <v>0.33</v>
       </c>
       <c r="O19" t="n">
         <v>19.8</v>
@@ -3826,19 +3893,19 @@
         <v>5.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="n">
         <v>21.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-8.6</v>
+        <v>-8.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,13 +3917,13 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3874,7 +3941,7 @@
         <v>2</v>
       </c>
       <c r="AP19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ19" t="n">
         <v>6</v>
@@ -3904,7 +3971,7 @@
         <v>26</v>
       </c>
       <c r="AZ19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA19" t="n">
         <v>5</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -3942,55 +4009,55 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E20" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" t="n">
         <v>36</v>
       </c>
       <c r="G20" t="n">
-        <v>0.538</v>
+        <v>0.544</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>82.5</v>
+        <v>82.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M20" t="n">
         <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O20" t="n">
         <v>16.4</v>
       </c>
       <c r="P20" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.757</v>
+        <v>0.752</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
         <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>43.4</v>
+        <v>43.7</v>
       </c>
       <c r="U20" t="n">
         <v>22.1</v>
@@ -4002,10 +4069,10 @@
         <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
         <v>18.5</v>
@@ -4014,22 +4081,22 @@
         <v>18.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AE20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>23</v>
@@ -4038,7 +4105,7 @@
         <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK20" t="n">
         <v>10</v>
@@ -4059,7 +4126,7 @@
         <v>20</v>
       </c>
       <c r="AQ20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AR20" t="n">
         <v>10</v>
@@ -4068,13 +4135,13 @@
         <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU20" t="n">
         <v>10</v>
       </c>
       <c r="AV20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW20" t="n">
         <v>25</v>
@@ -4089,7 +4156,7 @@
         <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" t="n">
         <v>64</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
@@ -4145,7 +4212,7 @@
         <v>82.2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.427</v>
+        <v>0.428</v>
       </c>
       <c r="L21" t="n">
         <v>6.8</v>
@@ -4154,25 +4221,25 @@
         <v>19.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O21" t="n">
         <v>14.8</v>
       </c>
       <c r="P21" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="R21" t="n">
         <v>10.6</v>
       </c>
       <c r="S21" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U21" t="n">
         <v>21.2</v>
@@ -4181,43 +4248,43 @@
         <v>14.6</v>
       </c>
       <c r="W21" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X21" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y21" t="n">
         <v>4.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA21" t="n">
         <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>-9.300000000000001</v>
+        <v>-9.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ21" t="n">
         <v>24</v>
@@ -4232,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,7 +4308,7 @@
         <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR21" t="n">
         <v>18</v>
@@ -4259,7 +4326,7 @@
         <v>19</v>
       </c>
       <c r="AW21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX21" t="n">
         <v>14</v>
@@ -4274,7 +4341,7 @@
         <v>25</v>
       </c>
       <c r="BB21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>2</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4438,7 +4505,7 @@
         <v>24</v>
       </c>
       <c r="AV22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW22" t="n">
         <v>21</v>
@@ -4456,7 +4523,7 @@
         <v>13</v>
       </c>
       <c r="BB22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -4515,28 +4582,28 @@
         <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O23" t="n">
         <v>14</v>
       </c>
       <c r="P23" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="Q23" t="n">
         <v>0.734</v>
       </c>
       <c r="R23" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S23" t="n">
         <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U23" t="n">
         <v>20.8</v>
@@ -4551,22 +4618,22 @@
         <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="AB23" t="n">
         <v>96</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.5</v>
+        <v>-5.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4581,10 +4648,10 @@
         <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK23" t="n">
         <v>13</v>
@@ -4596,7 +4663,7 @@
         <v>22</v>
       </c>
       <c r="AN23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4608,13 +4675,13 @@
         <v>24</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU23" t="n">
         <v>22</v>
@@ -4623,16 +4690,16 @@
         <v>22</v>
       </c>
       <c r="AW23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX23" t="n">
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -4670,34 +4737,34 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" t="n">
         <v>18</v>
       </c>
       <c r="F24" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" t="n">
-        <v>0.225</v>
+        <v>0.228</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="J24" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.408</v>
+        <v>0.407</v>
       </c>
       <c r="L24" t="n">
         <v>8.5</v>
       </c>
       <c r="M24" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="N24" t="n">
         <v>0.324</v>
@@ -4709,25 +4776,25 @@
         <v>23.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.672</v>
+        <v>0.67</v>
       </c>
       <c r="R24" t="n">
         <v>11.9</v>
       </c>
       <c r="S24" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T24" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U24" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V24" t="n">
         <v>17.6</v>
       </c>
       <c r="W24" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X24" t="n">
         <v>6</v>
@@ -4736,19 +4803,19 @@
         <v>5.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA24" t="n">
         <v>20.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>91.8</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>-9</v>
+        <v>-9.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,13 +4827,13 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
@@ -4781,10 +4848,10 @@
         <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4808,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY24" t="n">
         <v>27</v>
@@ -4820,7 +4887,7 @@
         <v>15</v>
       </c>
       <c r="BB24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -4942,13 +5009,13 @@
         <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI25" t="n">
         <v>6</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK25" t="n">
         <v>16</v>
@@ -4960,7 +5027,7 @@
         <v>9</v>
       </c>
       <c r="AN25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO25" t="n">
         <v>20</v>
@@ -4975,7 +5042,7 @@
         <v>14</v>
       </c>
       <c r="AS25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" t="n">
         <v>51</v>
       </c>
       <c r="F26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.638</v>
+        <v>0.646</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5064,7 +5131,7 @@
         <v>27.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.363</v>
+        <v>0.365</v>
       </c>
       <c r="O26" t="n">
         <v>15.6</v>
@@ -5079,10 +5146,10 @@
         <v>10.8</v>
       </c>
       <c r="S26" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="T26" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="U26" t="n">
         <v>22</v>
@@ -5091,7 +5158,7 @@
         <v>13.6</v>
       </c>
       <c r="W26" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X26" t="n">
         <v>4.6</v>
@@ -5109,28 +5176,28 @@
         <v>103</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>7</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK26" t="n">
         <v>17</v>
@@ -5142,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E28" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28" t="n">
         <v>26</v>
       </c>
       <c r="G28" t="n">
-        <v>0.671</v>
+        <v>0.675</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
@@ -5416,7 +5483,7 @@
         <v>39.1</v>
       </c>
       <c r="J28" t="n">
-        <v>84</v>
+        <v>83.8</v>
       </c>
       <c r="K28" t="n">
         <v>0.466</v>
@@ -5428,16 +5495,16 @@
         <v>22.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.364</v>
+        <v>0.366</v>
       </c>
       <c r="O28" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P28" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.778</v>
+        <v>0.779</v>
       </c>
       <c r="R28" t="n">
         <v>10</v>
@@ -5446,19 +5513,19 @@
         <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W28" t="n">
         <v>8.1</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.4</v>
@@ -5467,25 +5534,25 @@
         <v>19</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -5518,7 +5585,7 @@
         <v>4</v>
       </c>
       <c r="AR28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS28" t="n">
         <v>8</v>
@@ -5533,7 +5600,7 @@
         <v>12</v>
       </c>
       <c r="AW28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -5580,22 +5647,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29" t="n">
         <v>32</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>0.595</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J29" t="n">
         <v>83.40000000000001</v>
@@ -5613,28 +5680,28 @@
         <v>0.352</v>
       </c>
       <c r="O29" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P29" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.787</v>
+        <v>0.788</v>
       </c>
       <c r="R29" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S29" t="n">
         <v>30.8</v>
       </c>
       <c r="T29" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U29" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V29" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W29" t="n">
         <v>7.5</v>
@@ -5643,25 +5710,25 @@
         <v>4.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z29" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="AC29" t="n">
         <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF29" t="n">
         <v>10</v>
@@ -5670,7 +5737,7 @@
         <v>10</v>
       </c>
       <c r="AH29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI29" t="n">
         <v>11</v>
@@ -5700,19 +5767,19 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW29" t="n">
         <v>18</v>
@@ -5724,7 +5791,7 @@
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E30" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30" t="n">
         <v>43</v>
       </c>
       <c r="G30" t="n">
-        <v>0.463</v>
+        <v>0.456</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5795,13 +5862,13 @@
         <v>0.344</v>
       </c>
       <c r="O30" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="P30" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.724</v>
+        <v>0.723</v>
       </c>
       <c r="R30" t="n">
         <v>12</v>
@@ -5831,19 +5898,19 @@
         <v>19.3</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="AC30" t="n">
         <v>0.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF30" t="n">
         <v>19</v>
@@ -5870,13 +5937,13 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO30" t="n">
         <v>14</v>
       </c>
       <c r="AP30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ30" t="n">
         <v>26</v>
@@ -5888,10 +5955,10 @@
         <v>20</v>
       </c>
       <c r="AT30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6034,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI31" t="n">
         <v>9</v>
@@ -6055,16 +6122,16 @@
         <v>9</v>
       </c>
       <c r="AO31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP31" t="n">
         <v>22</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS31" t="n">
         <v>6</v>
@@ -6088,13 +6155,13 @@
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA31" t="n">
         <v>20</v>
       </c>
       <c r="BB31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-11-2014-15</t>
+          <t>2015-04-11</t>
         </is>
       </c>
     </row>
